--- a/doc/ue_savegame.xlsx
+++ b/doc/ue_savegame.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>ISaveGameSystem* SaveSystem = IPlatformFeaturesModule::Get().GetSaveGameSystem();</t>
   </si>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>如果是C++开发，或者蓝图使用还行；无法动态更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者MMO里面历史的陌生人列表等（有关系的服务器会保存，没关系的客户端缓存）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I6"/>
+  <dimension ref="B3:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,6 +532,11 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_savegame.xlsx
+++ b/doc/ue_savegame.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>ISaveGameSystem* SaveSystem = IPlatformFeaturesModule::Get().GetSaveGameSystem();</t>
   </si>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>或者MMO里面历史的陌生人列表等（有关系的服务器会保存，没关系的客户端缓存）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置信息的本地存储</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I7"/>
+  <dimension ref="B3:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,6 +541,11 @@
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_savegame.xlsx
+++ b/doc/ue_savegame.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5129C2-E5FF-46A5-997F-EF6A826D032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -44,124 +45,125 @@
     <t>static bool SaveArrayToFile( const TArray64&lt;uint8&gt;&amp; Array, const TCHAR* Filename, IFileManager* FileManager = &amp;IFileManager::Get(), uint32 WriteFlags = 0 );</t>
   </si>
   <si>
+    <t>class ISaveGameSystem</t>
+  </si>
+  <si>
+    <t>/** Returns true if the platform has a native UI (like many consoles) */</t>
+  </si>
+  <si>
+    <t>virtual bool PlatformHasNativeUI() = 0;</t>
+  </si>
+  <si>
+    <t>/** Return true if the named savegame exists (probably not useful with NativeUI */</t>
+  </si>
+  <si>
+    <t>virtual bool DoesSaveGameExist(const TCHAR* Name, const int32 UserIndex) = 0;</t>
+  </si>
+  <si>
+    <t>/** Similar to DoesSaveGameExist, except returns a result code with more information. */</t>
+  </si>
+  <si>
+    <t>virtual ESaveExistsResult DoesSaveGameExistWithResult(const TCHAR* Name, const int32 UserIndex) = 0;</t>
+  </si>
+  <si>
+    <t>/** Saves the game, blocking until complete. Platform may use FGameDelegates to get more information from the game */</t>
+  </si>
+  <si>
+    <t>virtual bool SaveGame(bool bAttemptToUseUI, const TCHAR* Name, const int32 UserIndex, const TArray&lt;uint8&gt;&amp; Data) = 0;</t>
+  </si>
+  <si>
+    <t>/** Loads the game, blocking until complete */</t>
+  </si>
+  <si>
+    <t>virtual bool LoadGame(bool bAttemptToUseUI, const TCHAR* Name, const int32 UserIndex, TArray&lt;uint8&gt;&amp; Data) = 0;</t>
+  </si>
+  <si>
+    <t>/** Delete an existing save game, blocking until complete */</t>
+  </si>
+  <si>
+    <t>virtual bool DeleteGame(bool bAttemptToUseUI, const TCHAR* Name, const int32 UserIndex) = 0;</t>
+  </si>
+  <si>
+    <t>不同平台下实现不一样：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚基类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过读取Uobject的Property对象，运行时存储其成员变量的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！必须是Uobject对象（USaveGame是纯Uobject类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是如果脚本开发，该机制没有什么意义，不如用proto协议去做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实可以仿照这个机制，自定义类和序列化，配合proto实现动态数据保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用于保存游戏类逻辑相关的本地缓存，例如历史聊天信息等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存的时候就包含了对应的类的名字，从而从能数据文件中获取类名字，实例化类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FIOSSaveGameSystem : public ISaveGameSystem</t>
+  </si>
+  <si>
+    <t>/** A generic save game system that just uses IFileManager to save/load with normal files */</t>
+  </si>
+  <si>
+    <t>class FGenericSaveGameSystem : public ISaveGameSystem</t>
+  </si>
+  <si>
+    <t>class FMagicLeapSaveGameSystem : public ISaveGameSystem</t>
+  </si>
+  <si>
+    <t>存储的Propert字段包含了名字，类型等信息，每次从文件读取一个TAG后，通过CLASS反射的PROPERTY链表找到名字相同，类型相同的Property设置，如果不匹配不管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以此实现了动态兼容的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖C++层UGameSave的定义，无法进行动态更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认存储目录：下载目录下面的SaveGames子目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是C++开发，或者蓝图使用还行；无法动态更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者MMO里面历史的陌生人列表等（有关系的服务器会保存，没关系的客户端缓存）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置信息的本地存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>static bool LoadFileToArray( TArray64&lt;uint8&gt;&amp; Result, const TCHAR* Filename, uint32 Flags = 0 );</t>
-  </si>
-  <si>
-    <t>class ISaveGameSystem</t>
-  </si>
-  <si>
-    <t>/** Returns true if the platform has a native UI (like many consoles) */</t>
-  </si>
-  <si>
-    <t>virtual bool PlatformHasNativeUI() = 0;</t>
-  </si>
-  <si>
-    <t>/** Return true if the named savegame exists (probably not useful with NativeUI */</t>
-  </si>
-  <si>
-    <t>virtual bool DoesSaveGameExist(const TCHAR* Name, const int32 UserIndex) = 0;</t>
-  </si>
-  <si>
-    <t>/** Similar to DoesSaveGameExist, except returns a result code with more information. */</t>
-  </si>
-  <si>
-    <t>virtual ESaveExistsResult DoesSaveGameExistWithResult(const TCHAR* Name, const int32 UserIndex) = 0;</t>
-  </si>
-  <si>
-    <t>/** Saves the game, blocking until complete. Platform may use FGameDelegates to get more information from the game */</t>
-  </si>
-  <si>
-    <t>virtual bool SaveGame(bool bAttemptToUseUI, const TCHAR* Name, const int32 UserIndex, const TArray&lt;uint8&gt;&amp; Data) = 0;</t>
-  </si>
-  <si>
-    <t>/** Loads the game, blocking until complete */</t>
-  </si>
-  <si>
-    <t>virtual bool LoadGame(bool bAttemptToUseUI, const TCHAR* Name, const int32 UserIndex, TArray&lt;uint8&gt;&amp; Data) = 0;</t>
-  </si>
-  <si>
-    <t>/** Delete an existing save game, blocking until complete */</t>
-  </si>
-  <si>
-    <t>virtual bool DeleteGame(bool bAttemptToUseUI, const TCHAR* Name, const int32 UserIndex) = 0;</t>
-  </si>
-  <si>
-    <t>不同平台下实现不一样：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚基类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过读取Uobject的Property对象，运行时存储其成员变量的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！必须是Uobject对象（USaveGame是纯Uobject类）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是如果脚本开发，该机制没有什么意义，不如用proto协议去做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实可以仿照这个机制，自定义类和序列化，配合proto实现动态数据保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用于保存游戏类逻辑相关的本地缓存，例如历史聊天信息等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存的时候就包含了对应的类的名字，从而从能数据文件中获取类名字，实例化类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class FIOSSaveGameSystem : public ISaveGameSystem</t>
-  </si>
-  <si>
-    <t>/** A generic save game system that just uses IFileManager to save/load with normal files */</t>
-  </si>
-  <si>
-    <t>class FGenericSaveGameSystem : public ISaveGameSystem</t>
-  </si>
-  <si>
-    <t>class FMagicLeapSaveGameSystem : public ISaveGameSystem</t>
-  </si>
-  <si>
-    <t>存储的Propert字段包含了名字，类型等信息，每次从文件读取一个TAG后，通过CLASS反射的PROPERTY链表找到名字相同，类型相同的Property设置，如果不匹配不管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以此实现了动态兼容的效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖C++层UGameSave的定义，无法进行动态更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认存储目录：下载目录下面的SaveGames子目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是C++开发，或者蓝图使用还行；无法动态更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或者MMO里面历史的陌生人列表等（有关系的服务器会保存，没关系的客户端缓存）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户设置信息的本地存储</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,46 +508,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -567,7 +569,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -588,7 +590,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -598,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,7 +624,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -645,82 +647,82 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.2">
@@ -728,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -737,12 +739,12 @@
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
@@ -750,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -759,7 +761,7 @@
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -780,12 +782,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -806,12 +808,12 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
